--- a/Data/Bees_Vestlandet_SiljeOgSara.xlsx
+++ b/Data/Bees_Vestlandet_SiljeOgSara.xlsx
@@ -8,17 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Aktive\DMS\6400_bg\52319_GreenRoad\STIPENDIAT AP3.1 POLLINERING\R\PollinationApples\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F3ABA4-816D-4754-903D-FAC6D0271A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088ACF78-4CA9-46E9-A7CB-216488552944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{80059B07-CD8C-4FAD-AA69-ACB8DCA40CA6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="2" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="102">
   <si>
     <t>Location</t>
   </si>
@@ -333,6 +337,18 @@
   </si>
   <si>
     <t>Norsk_gruppe</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count of Species</t>
   </si>
 </sst>
 </file>
@@ -420,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -432,6 +448,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,6 +468,2114 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Linn Vassvik" refreshedDate="44907.655995717592" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="251" xr:uid="{294B57EA-6F6E-4133-A2E0-85A76CF51772}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E1048576" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Location" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Species" numFmtId="0">
+      <sharedItems containsBlank="1" count="55">
+        <s v="Andrena cineraria"/>
+        <s v="Andrena clarkella"/>
+        <s v="Andrena haemorrhoa"/>
+        <s v="Andrena helvola"/>
+        <s v="Apis mellifera"/>
+        <s v="Bombus hypnorum"/>
+        <s v="Bombus pascuorum (pallidofacies)"/>
+        <s v="Bombus pratorum"/>
+        <s v="Bombus soroeensis"/>
+        <s v="Bombus terrestris"/>
+        <s v="Bombus terrestris (lucorum kompleks)"/>
+        <s v="Cheilosia albitarsis"/>
+        <s v="Cheilosia pegana"/>
+        <s v="Cheilosia proxima"/>
+        <s v="Cheilosia sahlbergi"/>
+        <s v="Cheilosia vicina"/>
+        <s v="Chrysotoxum fasiolatum"/>
+        <s v="Dasysyrphus venustus"/>
+        <s v="Eristalis pertinax"/>
+        <s v="Eupeodes luniger"/>
+        <s v="Ferdinandea cuprea"/>
+        <s v="Halictus rubicundus"/>
+        <s v="Hymenoptera"/>
+        <s v="Hymenoptera (wasp)"/>
+        <s v="Hymenoptera (wasp)?"/>
+        <s v="Lasioglossum albipes"/>
+        <s v="Lasioglossum calceatum"/>
+        <s v="Lasioglossum calceatum "/>
+        <s v="Lasioglossum fulvicorne"/>
+        <s v="Lasioglossum rufitarse"/>
+        <s v="Megasyrphus erraticus"/>
+        <s v="Melangyna barbifrons"/>
+        <s v="Melangyna coei"/>
+        <s v="Melangyna lucifera"/>
+        <s v="Melanostoma mellinum"/>
+        <s v="Melanostoma scalare"/>
+        <s v="Meliscaeva cinctella"/>
+        <s v="Nomada leucophthalma "/>
+        <s v="Orthonevra geniculata"/>
+        <s v="Parasyrphus nigritarsis"/>
+        <s v="Parasyrphus punctulatus"/>
+        <s v="Pipiza quadrimaculata"/>
+        <s v="Pipizella viduata"/>
+        <s v="Platycheirus albimanus"/>
+        <s v="Sphaerophoria interrupta"/>
+        <s v="Sphaerophoria scripta"/>
+        <s v="Syritta pipiens"/>
+        <s v="Syrphini sp."/>
+        <s v="Syrphus ribisii"/>
+        <s v="Syrphus torvus "/>
+        <s v="Syrphus vitripennis"/>
+        <s v="Xanthandrus comtus"/>
+        <s v="Xylota jakutorum"/>
+        <s v="Xylota segnis"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Genus" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Norsk" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Norsk_gruppe" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="251">
+  <r>
+    <s v="Djønno"/>
+    <x v="0"/>
+    <s v="Andrena"/>
+    <s v="Sandbie"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="0"/>
+    <s v="Andrena"/>
+    <s v="Sandbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="1"/>
+    <s v="Andrena"/>
+    <s v="Sandbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="1"/>
+    <s v="Andrena"/>
+    <s v="Sandbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="1"/>
+    <s v="Andrena"/>
+    <s v="Sandbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="2"/>
+    <s v="Andrena"/>
+    <s v="Sandbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="2"/>
+    <s v="Andrena"/>
+    <s v="Sandbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="2"/>
+    <s v="Andrena"/>
+    <s v="Sandbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="2"/>
+    <s v="Andrena"/>
+    <s v="Sandbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="2"/>
+    <s v="Andrena"/>
+    <s v="Sandbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="2"/>
+    <s v="Andrena"/>
+    <s v="Sandbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="2"/>
+    <s v="Andrena"/>
+    <s v="Sandbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="2"/>
+    <s v="Andrena"/>
+    <s v="Sandbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="2"/>
+    <s v="Andrena"/>
+    <s v="Sandbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="2"/>
+    <s v="Andrena"/>
+    <s v="Sandbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="3"/>
+    <s v="Andrena"/>
+    <s v="Sandbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Urheim"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Urheim"/>
+    <x v="4"/>
+    <s v="Apis"/>
+    <s v="Honningbie"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="5"/>
+    <s v="Bombus"/>
+    <s v="Humle"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="5"/>
+    <s v="Bombus"/>
+    <s v="Humle"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="5"/>
+    <s v="Bombus"/>
+    <s v="Humle"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="6"/>
+    <s v="Bombus"/>
+    <s v="Humle"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="6"/>
+    <s v="Bombus"/>
+    <s v="Humle"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="6"/>
+    <s v="Bombus"/>
+    <s v="Humle"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="6"/>
+    <s v="Bombus"/>
+    <s v="Humle"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="7"/>
+    <s v="Bombus"/>
+    <s v="Humle"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="7"/>
+    <s v="Bombus"/>
+    <s v="Humle"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="7"/>
+    <s v="Bombus"/>
+    <s v="Humle"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="7"/>
+    <s v="Bombus"/>
+    <s v="Humle"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="7"/>
+    <s v="Bombus"/>
+    <s v="Humle"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="7"/>
+    <s v="Bombus"/>
+    <s v="Humle"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="7"/>
+    <s v="Bombus"/>
+    <s v="Humle"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="7"/>
+    <s v="Bombus"/>
+    <s v="Humle"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="7"/>
+    <s v="Bombus"/>
+    <s v="Humle"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="7"/>
+    <s v="Bombus"/>
+    <s v="Humle"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="7"/>
+    <s v="Bombus"/>
+    <s v="Humle"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="7"/>
+    <s v="Bombus"/>
+    <s v="Humle"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="7"/>
+    <s v="Bombus"/>
+    <s v="Humle"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="8"/>
+    <s v="Bombus"/>
+    <s v="Humle"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="9"/>
+    <s v="Bombus"/>
+    <s v="Humle"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="9"/>
+    <s v="Bombus"/>
+    <s v="Humle"/>
+    <s v="Blomsterflue"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="10"/>
+    <s v="Bombus"/>
+    <s v="Humle"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="11"/>
+    <s v="Cheilosia"/>
+    <s v="Blomsterflue"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="11"/>
+    <s v="Cheilosia"/>
+    <s v="Blomsterflue"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="11"/>
+    <s v="Cheilosia"/>
+    <s v="Blomsterflue"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="11"/>
+    <s v="Cheilosia"/>
+    <s v="Blomsterflue"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="11"/>
+    <s v="Cheilosia"/>
+    <s v="Blomsterflue"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="11"/>
+    <s v="Cheilosia"/>
+    <s v="Blomsterflue"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="11"/>
+    <s v="Cheilosia"/>
+    <s v="Blomsterflue"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="11"/>
+    <s v="Cheilosia"/>
+    <s v="Blomsterflue"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="11"/>
+    <s v="Cheilosia"/>
+    <s v="Blomsterflue"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="11"/>
+    <s v="Cheilosia"/>
+    <s v="Blomsterflue"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="11"/>
+    <s v="Cheilosia"/>
+    <s v="Blomsterflue"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="11"/>
+    <s v="Cheilosia"/>
+    <s v="Blomsterflue"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="11"/>
+    <s v="Cheilosia"/>
+    <s v="Blomsterflue"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="11"/>
+    <s v="Cheilosia"/>
+    <s v="Blomsterflue"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Urheim"/>
+    <x v="11"/>
+    <s v="Cheilosia"/>
+    <s v="Blomsterflue"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Urheim"/>
+    <x v="11"/>
+    <s v="Cheilosia"/>
+    <s v="Blomsterflue"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="12"/>
+    <s v="Cheilosia"/>
+    <s v="Blomsterflue"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Urheim"/>
+    <x v="12"/>
+    <s v="Cheilosia"/>
+    <s v="Blomsterflue"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="13"/>
+    <s v="Cheilosia"/>
+    <s v="Blomsterflue"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Urheim"/>
+    <x v="13"/>
+    <s v="Cheilosia"/>
+    <s v="Blomsterflue"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="14"/>
+    <s v="Cheilosia"/>
+    <s v="Blomsterflue"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="14"/>
+    <s v="Cheilosia"/>
+    <s v="Blomsterflue"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="14"/>
+    <s v="Cheilosia"/>
+    <s v="Blomsterflue"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="15"/>
+    <s v="Cheilosia"/>
+    <s v="Blomsterflue"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="15"/>
+    <s v="Cheilosia"/>
+    <s v="Blomsterflue"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="16"/>
+    <s v="Chrysotoxum"/>
+    <s v="Blomsterflue"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="17"/>
+    <s v="Dasysyrphus"/>
+    <s v="Blomsterflue"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Urheim"/>
+    <x v="17"/>
+    <s v="Dasysyrphus"/>
+    <s v="Blomsterflue"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="18"/>
+    <s v="Eristalis"/>
+    <s v="Blomsterflue"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Urheim"/>
+    <x v="19"/>
+    <s v="Eupeodes"/>
+    <s v="Blomsterflue"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="20"/>
+    <s v="Ferdinandea"/>
+    <s v="Blomsterflue"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="20"/>
+    <s v="Ferdinandea"/>
+    <s v="Blomsterflue"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="20"/>
+    <s v="Ferdinandea"/>
+    <s v="Blomsterflue"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="20"/>
+    <s v="Ferdinandea"/>
+    <s v="Blomsterflue"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="20"/>
+    <s v="Ferdinandea"/>
+    <s v="Blomsterflue"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Urheim"/>
+    <x v="20"/>
+    <s v="Ferdinandea"/>
+    <s v="Blomsterflue"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="21"/>
+    <s v="Halictus"/>
+    <s v="Båndbie"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="22"/>
+    <s v="Wasp"/>
+    <s v="Veps"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="22"/>
+    <s v="Wasp"/>
+    <s v="Veps"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="23"/>
+    <s v="Wasp"/>
+    <s v="Veps"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="23"/>
+    <s v="Wasp"/>
+    <s v="Veps"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="23"/>
+    <s v="Wasp"/>
+    <s v="Veps"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="24"/>
+    <s v="Wasp"/>
+    <s v="Veps"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="25"/>
+    <s v="Lasioglossum"/>
+    <s v="Jordbier"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="25"/>
+    <s v="Lasioglossum"/>
+    <s v="Jordbier"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="25"/>
+    <s v="Lasioglossum"/>
+    <s v="Jordbier"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="25"/>
+    <s v="Lasioglossum"/>
+    <s v="Jordbier"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="25"/>
+    <s v="Lasioglossum"/>
+    <s v="Jordbier"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="25"/>
+    <s v="Lasioglossum"/>
+    <s v="Jordbier"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="25"/>
+    <s v="Lasioglossum"/>
+    <s v="Jordbier"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="25"/>
+    <s v="Lasioglossum"/>
+    <s v="Jordbier"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="25"/>
+    <s v="Lasioglossum"/>
+    <s v="Jordbier"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="25"/>
+    <s v="Lasioglossum"/>
+    <s v="Jordbier"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="26"/>
+    <s v="Lasioglossum"/>
+    <s v="Jordbier"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="26"/>
+    <s v="Lasioglossum"/>
+    <s v="Jordbier"/>
+    <s v="Honningbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="26"/>
+    <s v="Lasioglossum"/>
+    <s v="Jordbier"/>
+    <s v="Humle"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="26"/>
+    <s v="Lasioglossum"/>
+    <s v="Jordbier"/>
+    <s v="Humle"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="26"/>
+    <s v="Lasioglossum"/>
+    <s v="Jordbier"/>
+    <s v="Humle"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="26"/>
+    <s v="Lasioglossum"/>
+    <s v="Jordbier"/>
+    <s v="Humle"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="27"/>
+    <s v="Lasioglossum"/>
+    <s v="Jordbier"/>
+    <s v="Humle"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="27"/>
+    <s v="Lasioglossum"/>
+    <s v="Jordbier"/>
+    <s v="Humle"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="27"/>
+    <s v="Lasioglossum"/>
+    <s v="Jordbier"/>
+    <s v="Humle"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="27"/>
+    <s v="Lasioglossum"/>
+    <s v="Jordbier"/>
+    <s v="Humle"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="27"/>
+    <s v="Lasioglossum"/>
+    <s v="Jordbier"/>
+    <s v="Humle"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="27"/>
+    <s v="Lasioglossum"/>
+    <s v="Jordbier"/>
+    <s v="Humle"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="27"/>
+    <s v="Lasioglossum"/>
+    <s v="Jordbier"/>
+    <s v="Humle"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="27"/>
+    <s v="Lasioglossum"/>
+    <s v="Jordbier"/>
+    <s v="Humle"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="27"/>
+    <s v="Lasioglossum"/>
+    <s v="Jordbier"/>
+    <s v="Humle"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="27"/>
+    <s v="Lasioglossum"/>
+    <s v="Jordbier"/>
+    <s v="Humle"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="27"/>
+    <s v="Lasioglossum"/>
+    <s v="Jordbier"/>
+    <s v="Humle"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="27"/>
+    <s v="Lasioglossum"/>
+    <s v="Jordbier"/>
+    <s v="Humle"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="27"/>
+    <s v="Lasioglossum"/>
+    <s v="Jordbier"/>
+    <s v="Humle"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="27"/>
+    <s v="Lasioglossum"/>
+    <s v="Jordbier"/>
+    <s v="Humle"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="27"/>
+    <s v="Lasioglossum"/>
+    <s v="Jordbier"/>
+    <s v="Humle"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="27"/>
+    <s v="Lasioglossum"/>
+    <s v="Jordbier"/>
+    <s v="Humle"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="27"/>
+    <s v="Lasioglossum"/>
+    <s v="Jordbier"/>
+    <s v="Humle"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="27"/>
+    <s v="Lasioglossum"/>
+    <s v="Jordbier"/>
+    <s v="Humle"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="27"/>
+    <s v="Lasioglossum"/>
+    <s v="Jordbier"/>
+    <s v="Humle"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="27"/>
+    <s v="Lasioglossum"/>
+    <s v="Jordbier"/>
+    <s v="Humle"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="27"/>
+    <s v="Lasioglossum"/>
+    <s v="Jordbier"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="27"/>
+    <s v="Lasioglossum"/>
+    <s v="Jordbier"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="27"/>
+    <s v="Lasioglossum"/>
+    <s v="Jordbier"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="27"/>
+    <s v="Lasioglossum"/>
+    <s v="Jordbier"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="27"/>
+    <s v="Lasioglossum"/>
+    <s v="Jordbier"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="27"/>
+    <s v="Lasioglossum"/>
+    <s v="Jordbier"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="27"/>
+    <s v="Lasioglossum"/>
+    <s v="Jordbier"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Urheim"/>
+    <x v="27"/>
+    <s v="Lasioglossum"/>
+    <s v="Jordbier"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Urheim"/>
+    <x v="27"/>
+    <s v="Lasioglossum"/>
+    <s v="Jordbier"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="28"/>
+    <s v="Lasioglossum"/>
+    <s v="Jordbier"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="28"/>
+    <s v="Lasioglossum"/>
+    <s v="Jordbier"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="28"/>
+    <s v="Lasioglossum"/>
+    <s v="Jordbier"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Urheim"/>
+    <x v="29"/>
+    <s v="Lasioglossum"/>
+    <s v="Jordbier"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="30"/>
+    <s v="Megasyrphus"/>
+    <s v="Blomsterflue"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="31"/>
+    <s v="Melangyna"/>
+    <s v="Blomsterflue"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="31"/>
+    <s v="Melangyna"/>
+    <s v="Blomsterflue"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="31"/>
+    <s v="Melangyna"/>
+    <s v="Blomsterflue"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="32"/>
+    <s v="Melangyna"/>
+    <s v="Blomsterflue"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Urheim"/>
+    <x v="33"/>
+    <s v="Melangyna"/>
+    <s v="Blomsterflue"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="34"/>
+    <s v="Melanstoma"/>
+    <s v="Blomsterflue"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="35"/>
+    <s v="Melanstoma"/>
+    <s v="Blomsterflue"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="35"/>
+    <s v="Melanstoma"/>
+    <s v="Blomsterflue"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="35"/>
+    <s v="Melanstoma"/>
+    <s v="Blomsterflue"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="35"/>
+    <s v="Melanstoma"/>
+    <s v="Blomsterflue"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="35"/>
+    <s v="Melanstoma"/>
+    <s v="Blomsterflue"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="35"/>
+    <s v="Melanstoma"/>
+    <s v="Blomsterflue"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="35"/>
+    <s v="Melanstoma"/>
+    <s v="Blomsterflue"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="36"/>
+    <s v="Meliscaeva"/>
+    <s v="Blomsterflue"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="37"/>
+    <s v="Nomada"/>
+    <s v="Vepsebie"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="37"/>
+    <s v="Nomada"/>
+    <s v="Vepsebie"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="37"/>
+    <s v="Nomada"/>
+    <s v="Vepsebie"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="38"/>
+    <s v="Orthonevra"/>
+    <s v="Blomsterflue"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="39"/>
+    <s v="Parasyrphus"/>
+    <s v="Blomsterflue"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Urheim"/>
+    <x v="39"/>
+    <s v="Parasyrphus"/>
+    <s v="Blomsterflue"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Urheim"/>
+    <x v="39"/>
+    <s v="Parasyrphus"/>
+    <s v="Blomsterflue"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Urheim"/>
+    <x v="40"/>
+    <s v="Parasyrphus"/>
+    <s v="Blomsterflue"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="41"/>
+    <s v="Pipiza"/>
+    <s v="Blomsterflue"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="42"/>
+    <s v="Pipizella"/>
+    <s v="Blomsterflue"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="42"/>
+    <s v="Pipizella"/>
+    <s v="Blomsterflue"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="42"/>
+    <s v="Pipizella"/>
+    <s v="Blomsterflue"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="42"/>
+    <s v="Pipizella"/>
+    <s v="Blomsterflue"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="42"/>
+    <s v="Pipizella"/>
+    <s v="Blomsterflue"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="43"/>
+    <s v="Platycheirus"/>
+    <s v="Blomsterflue"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="43"/>
+    <s v="Platycheirus"/>
+    <s v="Blomsterflue"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Urheim"/>
+    <x v="43"/>
+    <s v="Platycheirus"/>
+    <s v="Blomsterflue"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="44"/>
+    <s v="Sphaerophoria"/>
+    <s v="Blomsterflue"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="45"/>
+    <s v="Sphaerophoria"/>
+    <s v="Blomsterflue"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="46"/>
+    <s v="Syritta"/>
+    <s v="Blomsterflue"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Urheim"/>
+    <x v="47"/>
+    <s v="Syrphini"/>
+    <s v="Blomsterflue"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="48"/>
+    <s v="Syrphus"/>
+    <s v="Blomsterflue"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Urheim"/>
+    <x v="49"/>
+    <s v="Syrphus"/>
+    <s v="Blomsterflue"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="50"/>
+    <s v="Syrphus"/>
+    <s v="Blomsterflue"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Urheim"/>
+    <x v="51"/>
+    <s v="Syrphus"/>
+    <s v="Blomsterflue"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="52"/>
+    <s v="Xylota"/>
+    <s v="Blomsterflue"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="52"/>
+    <s v="Xylota"/>
+    <s v="Blomsterflue"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="52"/>
+    <s v="Xylota"/>
+    <s v="Blomsterflue"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="52"/>
+    <s v="Xylota"/>
+    <s v="Blomsterflue"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="52"/>
+    <s v="Xylota"/>
+    <s v="Blomsterflue"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="52"/>
+    <s v="Xylota"/>
+    <s v="Blomsterflue"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="52"/>
+    <s v="Xylota"/>
+    <s v="Blomsterflue"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="52"/>
+    <s v="Xylota"/>
+    <s v="Blomsterflue"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="52"/>
+    <s v="Xylota"/>
+    <s v="Blomsterflue"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="52"/>
+    <s v="Xylota"/>
+    <s v="Blomsterflue"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="52"/>
+    <s v="Xylota"/>
+    <s v="Blomsterflue"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="52"/>
+    <s v="Xylota"/>
+    <s v="Blomsterflue"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="52"/>
+    <s v="Xylota"/>
+    <s v="Blomsterflue"/>
+    <s v="Veps"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="52"/>
+    <s v="Xylota"/>
+    <s v="Blomsterflue"/>
+    <s v="Veps"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="52"/>
+    <s v="Xylota"/>
+    <s v="Blomsterflue"/>
+    <s v="Veps"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="52"/>
+    <s v="Xylota"/>
+    <s v="Blomsterflue"/>
+    <s v="Veps"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="52"/>
+    <s v="Xylota"/>
+    <s v="Blomsterflue"/>
+    <s v="Veps"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="52"/>
+    <s v="Xylota"/>
+    <s v="Blomsterflue"/>
+    <s v="Veps"/>
+  </r>
+  <r>
+    <s v="Lofthus"/>
+    <x v="53"/>
+    <s v="Xylota"/>
+    <s v="Blomsterflue"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="53"/>
+    <s v="Xylota"/>
+    <s v="Blomsterflue"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <s v="Djønno"/>
+    <x v="53"/>
+    <s v="Xylota"/>
+    <s v="Blomsterflue"/>
+    <s v="Villbie"/>
+  </r>
+  <r>
+    <m/>
+    <x v="54"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="54"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DFA369DC-C6F9-4B45-9922-9FF36412E69C}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B59" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="56">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="56">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Species" fld="1" subtotal="count" baseField="1" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -745,11 +2874,484 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8459A0CE-08C1-4089-9878-7D8292CFE3C2}">
+  <dimension ref="A3:B59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="13">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="13">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" s="13"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B59" s="13">
+        <v>249</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F217761-C46D-4553-9B08-6E524775D494}">
   <dimension ref="A1:E250"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -782,13 +3384,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>66</v>
@@ -798,14 +3400,14 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>30</v>
+      <c r="B3" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>63</v>
@@ -815,14 +3417,14 @@
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>30</v>
+      <c r="B4" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>63</v>
@@ -832,14 +3434,14 @@
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>30</v>
+      <c r="B5" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>63</v>
@@ -849,14 +3451,14 @@
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>30</v>
+      <c r="B6" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>63</v>
@@ -866,14 +3468,14 @@
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>30</v>
+      <c r="B7" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>63</v>
@@ -883,14 +3485,14 @@
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>30</v>
+      <c r="B8" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>63</v>
@@ -900,14 +3502,14 @@
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>30</v>
+      <c r="B9" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>63</v>
@@ -917,14 +3519,14 @@
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>30</v>
+      <c r="B10" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>63</v>
@@ -934,14 +3536,14 @@
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>30</v>
+      <c r="B11" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>63</v>
@@ -951,82 +3553,82 @@
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>30</v>
+      <c r="B12" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>30</v>
+      <c r="B16" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>63</v>
@@ -1034,16 +3636,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>63</v>
@@ -1051,16 +3653,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>63</v>
@@ -1070,14 +3672,14 @@
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>31</v>
+      <c r="B19" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>63</v>
@@ -1085,16 +3687,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>63</v>
@@ -1104,14 +3706,14 @@
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>32</v>
+      <c r="B21" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>63</v>
@@ -1119,16 +3721,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>63</v>
@@ -1138,48 +3740,48 @@
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>33</v>
+      <c r="B23" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>33</v>
+      <c r="A24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>33</v>
+      <c r="A25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>63</v>
@@ -1189,14 +3791,14 @@
       <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>34</v>
+      <c r="B26" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>63</v>
@@ -1206,14 +3808,14 @@
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>34</v>
+      <c r="B27" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>63</v>
@@ -1223,31 +3825,31 @@
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>35</v>
+      <c r="B28" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>53</v>
+      <c r="A29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>63</v>
@@ -1255,16 +3857,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>63</v>
@@ -1274,14 +3876,14 @@
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>36</v>
+      <c r="B31" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>63</v>
@@ -1289,16 +3891,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>57</v>
+        <v>1</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>63</v>
@@ -1308,14 +3910,14 @@
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>37</v>
+      <c r="B33" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>63</v>
@@ -1325,14 +3927,14 @@
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>37</v>
+      <c r="B34" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>63</v>
@@ -1342,48 +3944,48 @@
       <c r="A35" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>37</v>
+      <c r="B35" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>37</v>
+      <c r="A36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>37</v>
+      <c r="A37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>63</v>
@@ -1391,16 +3993,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>63</v>
@@ -1410,14 +4012,14 @@
       <c r="A39" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>38</v>
+      <c r="B39" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>63</v>
@@ -1427,14 +4029,14 @@
       <c r="A40" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>39</v>
+      <c r="B40" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>63</v>
@@ -1442,16 +4044,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>39</v>
+        <v>76</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>63</v>
@@ -1459,16 +4061,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>39</v>
+        <v>76</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>63</v>
@@ -1476,16 +4078,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>40</v>
+        <v>76</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>63</v>
@@ -1493,16 +4095,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>58</v>
+        <v>76</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>63</v>
@@ -1510,16 +4112,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>41</v>
+        <v>76</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>63</v>
@@ -1527,16 +4129,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>42</v>
+        <v>76</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>63</v>
@@ -1544,424 +4146,424 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>42</v>
+        <v>76</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>42</v>
+      <c r="A48" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>42</v>
+      <c r="A49" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>42</v>
+      <c r="A50" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>42</v>
+      <c r="B51" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>42</v>
+      <c r="B52" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>43</v>
+      <c r="A53" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>44</v>
+      <c r="A54" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>45</v>
+      <c r="A55" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>45</v>
+      <c r="A56" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>45</v>
+      <c r="A57" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>59</v>
+      <c r="A58" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>46</v>
+      <c r="A59" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>47</v>
+      <c r="A60" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>47</v>
+      <c r="A61" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>47</v>
+      <c r="A62" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>47</v>
+      <c r="A63" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>47</v>
+      <c r="A64" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>54</v>
+      <c r="B65" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>54</v>
+      <c r="B66" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>54</v>
+      <c r="A67" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>55</v>
+      <c r="B68" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>48</v>
+      <c r="A69" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>56</v>
+      <c r="B70" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>60</v>
+      <c r="A71" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>63</v>
@@ -1969,16 +4571,16 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>63</v>
@@ -1988,14 +4590,14 @@
       <c r="A73" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>61</v>
+      <c r="B73" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>63</v>
@@ -2005,14 +4607,14 @@
       <c r="A74" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>50</v>
+      <c r="B74" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>63</v>
@@ -2020,16 +4622,16 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>62</v>
+        <v>76</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>63</v>
@@ -2037,16 +4639,16 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>51</v>
+        <v>76</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>63</v>
@@ -2056,14 +4658,14 @@
       <c r="A77" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>51</v>
+      <c r="B77" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>63</v>
@@ -2073,14 +4675,14 @@
       <c r="A78" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>51</v>
+      <c r="B78" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>63</v>
@@ -2088,33 +4690,33 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>51</v>
+        <v>76</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>51</v>
+      <c r="A80" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>63</v>
@@ -2124,14 +4726,14 @@
       <c r="A81" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>51</v>
+      <c r="B81" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>63</v>
@@ -2141,14 +4743,14 @@
       <c r="A82" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>51</v>
+      <c r="B82" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>63</v>
@@ -2158,14 +4760,14 @@
       <c r="A83" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>51</v>
+      <c r="B83" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>63</v>
@@ -2175,14 +4777,14 @@
       <c r="A84" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>51</v>
+      <c r="B84" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>63</v>
@@ -2192,14 +4794,14 @@
       <c r="A85" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>51</v>
+      <c r="B85" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>63</v>
@@ -2209,14 +4811,14 @@
       <c r="A86" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>51</v>
+      <c r="B86" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>63</v>
@@ -2226,14 +4828,14 @@
       <c r="A87" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>51</v>
+      <c r="B87" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>63</v>
@@ -2243,14 +4845,14 @@
       <c r="A88" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>51</v>
+      <c r="B88" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>63</v>
@@ -2260,14 +4862,14 @@
       <c r="A89" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>51</v>
+      <c r="B89" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>63</v>
@@ -2277,14 +4879,14 @@
       <c r="A90" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>51</v>
+      <c r="B90" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>63</v>
@@ -2294,14 +4896,14 @@
       <c r="A91" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>51</v>
+      <c r="B91" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>63</v>
@@ -2309,16 +4911,16 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>51</v>
+        <v>76</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>63</v>
@@ -2326,33 +4928,33 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>51</v>
+        <v>76</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E93" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>52</v>
+      <c r="B94" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>63</v>
@@ -2360,33 +4962,33 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>52</v>
+        <v>76</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>52</v>
+      <c r="A96" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>63</v>
@@ -2394,16 +4996,16 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>67</v>
@@ -2413,14 +5015,14 @@
       <c r="A98" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B98" s="6" t="s">
-        <v>3</v>
+      <c r="B98" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>67</v>
@@ -2430,14 +5032,14 @@
       <c r="A99" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B99" s="6" t="s">
-        <v>3</v>
+      <c r="B99" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>67</v>
@@ -2447,14 +5049,14 @@
       <c r="A100" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B100" s="6" t="s">
-        <v>3</v>
+      <c r="B100" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>67</v>
@@ -2464,14 +5066,14 @@
       <c r="A101" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B101" s="6" t="s">
-        <v>3</v>
+      <c r="B101" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E101" s="5" t="s">
         <v>67</v>
@@ -2481,14 +5083,14 @@
       <c r="A102" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B102" s="6" t="s">
-        <v>3</v>
+      <c r="B102" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E102" s="5" t="s">
         <v>67</v>
@@ -2498,14 +5100,14 @@
       <c r="A103" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B103" s="6" t="s">
-        <v>3</v>
+      <c r="B103" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E103" s="5" t="s">
         <v>67</v>
@@ -2515,14 +5117,14 @@
       <c r="A104" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B104" s="6" t="s">
-        <v>3</v>
+      <c r="B104" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E104" s="5" t="s">
         <v>67</v>
@@ -2532,14 +5134,14 @@
       <c r="A105" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B105" s="6" t="s">
-        <v>3</v>
+      <c r="B105" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>67</v>
@@ -2549,14 +5151,14 @@
       <c r="A106" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B106" s="6" t="s">
-        <v>3</v>
+      <c r="B106" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>67</v>
@@ -2566,82 +5168,82 @@
       <c r="A107" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B107" s="6" t="s">
-        <v>3</v>
+      <c r="B107" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E107" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A108" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>3</v>
+      <c r="A108" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E108" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A109" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>3</v>
+      <c r="A109" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E109" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A110" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>3</v>
+      <c r="A110" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E110" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A111" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>3</v>
+      <c r="A111" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E111" s="5" t="s">
         <v>67</v>
@@ -2649,16 +5251,16 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E112" s="5" t="s">
         <v>67</v>
@@ -2666,16 +5268,16 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E113" s="5" t="s">
         <v>67</v>
@@ -2685,14 +5287,14 @@
       <c r="A114" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B114" s="6" t="s">
-        <v>3</v>
+      <c r="B114" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E114" s="5" t="s">
         <v>67</v>
@@ -2700,16 +5302,16 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E115" s="5" t="s">
         <v>67</v>
@@ -2719,14 +5321,14 @@
       <c r="A116" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B116" s="6" t="s">
-        <v>3</v>
+      <c r="B116" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E116" s="5" t="s">
         <v>67</v>
@@ -2734,16 +5336,16 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E117" s="5" t="s">
         <v>67</v>
@@ -2753,48 +5355,48 @@
       <c r="A118" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B118" s="6" t="s">
-        <v>3</v>
+      <c r="B118" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E118" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A119" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>3</v>
+      <c r="A119" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E119" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B120" s="6" t="s">
-        <v>3</v>
+      <c r="B120" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E120" s="5" t="s">
         <v>67</v>
@@ -2802,16 +5404,16 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E121" s="5" t="s">
         <v>67</v>
@@ -2819,16 +5421,16 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E122" s="5" t="s">
         <v>67</v>
@@ -2836,33 +5438,33 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B123" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A124" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>3</v>
+      <c r="B124" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E124" s="5" t="s">
         <v>67</v>
@@ -2870,16 +5472,16 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E125" s="5" t="s">
         <v>67</v>
@@ -2887,220 +5489,220 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B126" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A127" s="7" t="s">
+      <c r="B131" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B127" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D127" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A128" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D128" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A129" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A130" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D130" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E130" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A131" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E131" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A132" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>3</v>
+      <c r="B132" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E132" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A133" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>3</v>
+      <c r="A133" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E133" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A134" s="7" t="s">
-        <v>76</v>
+      <c r="A134" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E134" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A135" s="7" t="s">
-        <v>76</v>
+      <c r="A135" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E135" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A136" s="7" t="s">
-        <v>76</v>
+      <c r="A136" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E136" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A137" s="7" t="s">
-        <v>76</v>
+      <c r="A137" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E137" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A138" s="7" t="s">
-        <v>76</v>
+      <c r="A138" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E138" s="5" t="s">
         <v>67</v>
@@ -3110,201 +5712,201 @@
       <c r="A139" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B139" s="6" t="s">
-        <v>3</v>
+      <c r="B139" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E139" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A140" s="7" t="s">
-        <v>76</v>
+      <c r="A140" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E140" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A141" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>3</v>
+      <c r="A141" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E141" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A142" s="7" t="s">
-        <v>76</v>
+      <c r="A142" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E142" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A143" s="7" t="s">
-        <v>76</v>
+      <c r="A143" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E143" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A144" s="7" t="s">
-        <v>76</v>
+      <c r="A144" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E144" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A145" s="7" t="s">
-        <v>76</v>
+      <c r="A145" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E145" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A146" s="7" t="s">
-        <v>76</v>
+      <c r="A146" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E146" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A147" s="7" t="s">
-        <v>76</v>
+      <c r="A147" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E147" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A148" s="7" t="s">
-        <v>76</v>
+      <c r="A148" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E148" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A149" s="7" t="s">
-        <v>76</v>
+      <c r="A149" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E149" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A150" s="7" t="s">
-        <v>76</v>
+      <c r="A150" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E150" s="5" t="s">
         <v>67</v>
@@ -3312,16 +5914,16 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E151" s="5" t="s">
         <v>67</v>
@@ -3329,16 +5931,16 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E152" s="5" t="s">
         <v>67</v>
@@ -3349,13 +5951,13 @@
         <v>1</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E153" s="5" t="s">
         <v>68</v>
@@ -3363,16 +5965,16 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E154" s="5" t="s">
         <v>68</v>
@@ -3380,16 +5982,16 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E155" s="5" t="s">
         <v>68</v>
@@ -3400,13 +6002,13 @@
         <v>1</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E156" s="5" t="s">
         <v>68</v>
@@ -3417,13 +6019,13 @@
         <v>1</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E157" s="5" t="s">
         <v>68</v>
@@ -3431,33 +6033,33 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E158" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A159" s="7" t="s">
-        <v>76</v>
+      <c r="A159" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E159" s="5" t="s">
         <v>68</v>
@@ -3468,13 +6070,13 @@
         <v>1</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E160" s="5" t="s">
         <v>68</v>
@@ -3485,13 +6087,13 @@
         <v>1</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E161" s="5" t="s">
         <v>68</v>
@@ -3502,13 +6104,13 @@
         <v>1</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E162" s="5" t="s">
         <v>68</v>
@@ -3519,13 +6121,13 @@
         <v>1</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E163" s="5" t="s">
         <v>68</v>
@@ -3536,13 +6138,13 @@
         <v>1</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E164" s="5" t="s">
         <v>68</v>
@@ -3553,13 +6155,13 @@
         <v>1</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E165" s="5" t="s">
         <v>68</v>
@@ -3570,13 +6172,13 @@
         <v>1</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E166" s="5" t="s">
         <v>68</v>
@@ -3587,13 +6189,13 @@
         <v>1</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E167" s="5" t="s">
         <v>68</v>
@@ -3604,13 +6206,13 @@
         <v>1</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E168" s="5" t="s">
         <v>68</v>
@@ -3621,13 +6223,13 @@
         <v>1</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E169" s="5" t="s">
         <v>68</v>
@@ -3638,13 +6240,13 @@
         <v>1</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E170" s="5" t="s">
         <v>68</v>
@@ -3652,16 +6254,16 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E171" s="5" t="s">
         <v>68</v>
@@ -3669,16 +6271,16 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E172" s="5" t="s">
         <v>68</v>
@@ -3686,16 +6288,16 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B173" s="9" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E173" s="5" t="s">
         <v>68</v>
@@ -3703,33 +6305,33 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B174" s="8" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E174" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A175" s="7" t="s">
-        <v>76</v>
+      <c r="A175" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E175" s="5" t="s">
         <v>68</v>
@@ -3737,16 +6339,16 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E176" s="5" t="s">
         <v>68</v>
@@ -3756,8 +6358,8 @@
       <c r="A177" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B177" s="9" t="s">
-        <v>25</v>
+      <c r="B177" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C177" s="5" t="s">
         <v>29</v>
@@ -3774,7 +6376,7 @@
         <v>1</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C178" s="5" t="s">
         <v>29</v>
@@ -3791,7 +6393,7 @@
         <v>1</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C179" s="5" t="s">
         <v>29</v>
@@ -3808,7 +6410,7 @@
         <v>1</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C180" s="5" t="s">
         <v>29</v>
@@ -3825,7 +6427,7 @@
         <v>1</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C181" s="5" t="s">
         <v>29</v>
@@ -3842,7 +6444,7 @@
         <v>1</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C182" s="5" t="s">
         <v>29</v>
@@ -3859,7 +6461,7 @@
         <v>1</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C183" s="5" t="s">
         <v>29</v>
@@ -3873,10 +6475,10 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C184" s="5" t="s">
         <v>29</v>
@@ -3890,10 +6492,10 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C185" s="5" t="s">
         <v>29</v>
@@ -3910,7 +6512,7 @@
         <v>1</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C186" s="5" t="s">
         <v>29</v>
@@ -3926,8 +6528,8 @@
       <c r="A187" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B187" s="6" t="s">
-        <v>12</v>
+      <c r="B187" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="C187" s="5" t="s">
         <v>29</v>
@@ -3944,7 +6546,7 @@
         <v>1</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C188" s="5" t="s">
         <v>29</v>
@@ -3958,10 +6560,10 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C189" s="5" t="s">
         <v>29</v>
@@ -3977,14 +6579,14 @@
       <c r="A190" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B190" s="6" t="s">
-        <v>12</v>
+      <c r="B190" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E190" s="10" t="s">
         <v>66</v>
@@ -3994,14 +6596,14 @@
       <c r="A191" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B191" s="6" t="s">
-        <v>12</v>
+      <c r="B191" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E191" s="10" t="s">
         <v>66</v>
@@ -4011,14 +6613,14 @@
       <c r="A192" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B192" s="6" t="s">
-        <v>12</v>
+      <c r="B192" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E192" s="10" t="s">
         <v>66</v>
@@ -4028,14 +6630,14 @@
       <c r="A193" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B193" s="6" t="s">
-        <v>19</v>
+      <c r="B193" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E193" s="10" t="s">
         <v>66</v>
@@ -4045,14 +6647,14 @@
       <c r="A194" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B194" s="6" t="s">
-        <v>19</v>
+      <c r="B194" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E194" s="10" t="s">
         <v>66</v>
@@ -4060,16 +6662,16 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B195" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E195" s="10" t="s">
         <v>66</v>
@@ -4079,14 +6681,14 @@
       <c r="A196" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B196" s="6" t="s">
-        <v>19</v>
+      <c r="B196" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E196" s="10" t="s">
         <v>66</v>
@@ -4096,14 +6698,14 @@
       <c r="A197" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B197" s="6" t="s">
-        <v>19</v>
+      <c r="B197" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E197" s="10" t="s">
         <v>66</v>
@@ -4113,14 +6715,14 @@
       <c r="A198" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B198" s="6" t="s">
-        <v>19</v>
+      <c r="B198" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E198" s="10" t="s">
         <v>66</v>
@@ -4130,14 +6732,14 @@
       <c r="A199" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B199" s="6" t="s">
-        <v>19</v>
+      <c r="B199" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E199" s="10" t="s">
         <v>66</v>
@@ -4147,14 +6749,14 @@
       <c r="A200" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B200" s="6" t="s">
-        <v>19</v>
+      <c r="B200" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E200" s="10" t="s">
         <v>66</v>
@@ -4164,48 +6766,48 @@
       <c r="A201" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B201" s="6" t="s">
-        <v>19</v>
+      <c r="B201" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E201" s="10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A202" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B202" s="6" t="s">
-        <v>19</v>
+      <c r="A202" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E202" s="10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A203" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B203" s="6" t="s">
-        <v>19</v>
+      <c r="A203" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E203" s="10" t="s">
         <v>66</v>
@@ -4215,14 +6817,14 @@
       <c r="A204" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B204" s="6" t="s">
-        <v>19</v>
+      <c r="B204" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E204" s="10" t="s">
         <v>66</v>
@@ -4232,14 +6834,14 @@
       <c r="A205" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B205" s="6" t="s">
-        <v>19</v>
+      <c r="B205" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E205" s="10" t="s">
         <v>66</v>
@@ -4249,14 +6851,14 @@
       <c r="A206" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B206" s="6" t="s">
-        <v>19</v>
+      <c r="B206" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E206" s="10" t="s">
         <v>66</v>
@@ -4267,13 +6869,13 @@
         <v>1</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E207" s="10" t="s">
         <v>66</v>
@@ -4283,14 +6885,14 @@
       <c r="A208" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B208" s="6" t="s">
-        <v>19</v>
+      <c r="B208" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E208" s="10" t="s">
         <v>66</v>
@@ -4300,14 +6902,14 @@
       <c r="A209" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B209" s="6" t="s">
-        <v>19</v>
+      <c r="B209" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E209" s="10" t="s">
         <v>66</v>
@@ -4315,16 +6917,16 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B210" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E210" s="10" t="s">
         <v>66</v>
@@ -4332,16 +6934,16 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E211" s="10" t="s">
         <v>66</v>
@@ -4349,16 +6951,16 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B212" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E212" s="10" t="s">
         <v>66</v>
@@ -4368,14 +6970,14 @@
       <c r="A213" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B213" s="6" t="s">
-        <v>19</v>
+      <c r="B213" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E213" s="10" t="s">
         <v>66</v>
@@ -4385,14 +6987,14 @@
       <c r="A214" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B214" s="6" t="s">
-        <v>19</v>
+      <c r="B214" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E214" s="10" t="s">
         <v>66</v>
@@ -4402,14 +7004,14 @@
       <c r="A215" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B215" s="6" t="s">
-        <v>19</v>
+      <c r="B215" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E215" s="10" t="s">
         <v>66</v>
@@ -4419,14 +7021,14 @@
       <c r="A216" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B216" s="6" t="s">
-        <v>19</v>
+      <c r="B216" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E216" s="10" t="s">
         <v>66</v>
@@ -4436,14 +7038,14 @@
       <c r="A217" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B217" s="6" t="s">
-        <v>19</v>
+      <c r="B217" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E217" s="10" t="s">
         <v>66</v>
@@ -4453,48 +7055,48 @@
       <c r="A218" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B218" s="6" t="s">
-        <v>19</v>
+      <c r="B218" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E218" s="10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A219" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B219" s="6" t="s">
-        <v>19</v>
+      <c r="A219" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E219" s="10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A220" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B220" s="6" t="s">
-        <v>19</v>
+      <c r="A220" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E220" s="10" t="s">
         <v>66</v>
@@ -4504,31 +7106,31 @@
       <c r="A221" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B221" s="6" t="s">
-        <v>19</v>
+      <c r="B221" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E221" s="10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A222" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B222" s="6" t="s">
-        <v>24</v>
+      <c r="A222" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E222" s="10" t="s">
         <v>66</v>
@@ -4538,31 +7140,31 @@
       <c r="A223" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B223" s="8" t="s">
-        <v>24</v>
+      <c r="B223" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E223" s="10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A224" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B224" s="6" t="s">
-        <v>24</v>
+      <c r="A224" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E224" s="10" t="s">
         <v>66</v>
@@ -4572,14 +7174,14 @@
       <c r="A225" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B225" s="6" t="s">
-        <v>26</v>
+      <c r="B225" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E225" s="10" t="s">
         <v>66</v>
@@ -4589,14 +7191,14 @@
       <c r="A226" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B226" s="6" t="s">
-        <v>21</v>
+      <c r="B226" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E226" s="10" t="s">
         <v>66</v>
@@ -4604,16 +7206,16 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B227" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="D227" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E227" s="10" t="s">
         <v>66</v>
@@ -4623,14 +7225,14 @@
       <c r="A228" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B228" s="6" t="s">
-        <v>17</v>
+      <c r="B228" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E228" s="10" t="s">
         <v>66</v>
@@ -4638,16 +7240,16 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B229" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="D229" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E229" s="10" t="s">
         <v>66</v>
@@ -4657,14 +7259,14 @@
       <c r="A230" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B230" s="6" t="s">
-        <v>17</v>
+      <c r="B230" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="D230" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E230" s="10" t="s">
         <v>66</v>
@@ -4674,14 +7276,14 @@
       <c r="A231" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B231" s="6" t="s">
-        <v>16</v>
+      <c r="B231" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="D231" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E231" s="10" t="s">
         <v>66</v>
@@ -4691,14 +7293,14 @@
       <c r="A232" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B232" s="6" t="s">
-        <v>16</v>
+      <c r="B232" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="D232" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E232" s="10" t="s">
         <v>66</v>
@@ -4708,14 +7310,14 @@
       <c r="A233" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B233" s="6" t="s">
-        <v>16</v>
+      <c r="B233" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="D233" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E233" s="10" t="s">
         <v>66</v>
@@ -4725,14 +7327,14 @@
       <c r="A234" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B234" s="6" t="s">
-        <v>16</v>
+      <c r="B234" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="D234" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E234" s="10" t="s">
         <v>66</v>
@@ -4742,14 +7344,14 @@
       <c r="A235" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B235" s="6" t="s">
-        <v>16</v>
+      <c r="B235" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="D235" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E235" s="10" t="s">
         <v>66</v>
@@ -4759,14 +7361,14 @@
       <c r="A236" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B236" s="6" t="s">
-        <v>16</v>
+      <c r="B236" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="D236" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E236" s="10" t="s">
         <v>66</v>
@@ -4776,14 +7378,14 @@
       <c r="A237" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B237" s="6" t="s">
-        <v>16</v>
+      <c r="B237" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="D237" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E237" s="10" t="s">
         <v>66</v>
@@ -4793,14 +7395,14 @@
       <c r="A238" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B238" s="6" t="s">
-        <v>16</v>
+      <c r="B238" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="D238" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E238" s="10" t="s">
         <v>66</v>
@@ -4810,31 +7412,31 @@
       <c r="A239" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B239" s="6" t="s">
-        <v>16</v>
+      <c r="B239" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="D239" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E239" s="10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A240" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B240" s="6" t="s">
-        <v>16</v>
+      <c r="A240" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E240" s="10" t="s">
         <v>66</v>
@@ -4844,14 +7446,14 @@
       <c r="A241" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B241" s="6" t="s">
-        <v>22</v>
+      <c r="B241" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="D241" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E241" s="10" t="s">
         <v>66</v>
@@ -4861,14 +7463,14 @@
       <c r="A242" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B242" s="6" t="s">
-        <v>20</v>
+      <c r="B242" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="D242" s="5" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E242" s="5" t="s">
         <v>72</v>
@@ -4878,14 +7480,14 @@
       <c r="A243" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B243" s="6" t="s">
-        <v>20</v>
+      <c r="B243" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="D243" s="5" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E243" s="5" t="s">
         <v>72</v>
@@ -4895,14 +7497,14 @@
       <c r="A244" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B244" s="6" t="s">
-        <v>10</v>
+      <c r="B244" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="D244" s="5" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E244" s="5" t="s">
         <v>72</v>
@@ -4912,31 +7514,31 @@
       <c r="A245" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B245" s="6" t="s">
-        <v>10</v>
+      <c r="B245" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E245" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A246" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B246" s="9" t="s">
-        <v>10</v>
+      <c r="A246" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E246" s="5" t="s">
         <v>72</v>
@@ -4946,31 +7548,31 @@
       <c r="A247" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B247" s="6" t="s">
-        <v>11</v>
+      <c r="B247" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E247" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A248" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B248" s="9" t="s">
-        <v>23</v>
+      <c r="A248" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E248" s="10" t="s">
         <v>66</v>
@@ -4980,14 +7582,14 @@
       <c r="A249" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B249" s="9" t="s">
-        <v>23</v>
+      <c r="B249" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D249" s="5" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E249" s="10" t="s">
         <v>66</v>
@@ -4997,14 +7599,14 @@
       <c r="A250" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B250" s="6" t="s">
-        <v>23</v>
+      <c r="B250" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E250" s="10" t="s">
         <v>66</v>
@@ -5012,8 +7614,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{7F217761-C46D-4553-9B08-6E524775D494}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D255">
-      <sortCondition ref="C1"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D250">
+      <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E257">

--- a/Data/Bees_Vestlandet_SiljeOgSara.xlsx
+++ b/Data/Bees_Vestlandet_SiljeOgSara.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Aktive\DMS\6400_bg\52319_GreenRoad\STIPENDIAT AP3.1 POLLINERING\R\PollinationApples\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AD0F1C-3136-44E2-812F-893B2FF4DD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124FED0B-0E79-4437-9B02-25FE5EFBAA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{80059B07-CD8C-4FAD-AA69-ACB8DCA40CA6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="98">
   <si>
     <t>Location</t>
   </si>
@@ -318,6 +318,21 @@
   </si>
   <si>
     <t>Norsk_gruppe</t>
+  </si>
+  <si>
+    <t>English_gruppe</t>
+  </si>
+  <si>
+    <t>Wild bee</t>
+  </si>
+  <si>
+    <t>Hoverfly</t>
+  </si>
+  <si>
+    <t>Honeybee</t>
+  </si>
+  <si>
+    <t>Bumble bee</t>
   </si>
 </sst>
 </file>
@@ -731,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F217761-C46D-4553-9B08-6E524775D494}">
-  <dimension ref="A1:E244"/>
+  <dimension ref="A1:F244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="D242" sqref="D242"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -742,10 +757,10 @@
     <col min="1" max="1" width="8.7265625" style="1"/>
     <col min="2" max="2" width="32.08984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="30.453125" style="5" customWidth="1"/>
-    <col min="4" max="5" width="18" style="5" customWidth="1"/>
+    <col min="4" max="6" width="18" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -761,8 +776,11 @@
       <c r="E1" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -778,8 +796,11 @@
       <c r="E2" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -795,8 +816,11 @@
       <c r="E3" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -812,8 +836,11 @@
       <c r="E4" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -829,8 +856,11 @@
       <c r="E5" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -846,8 +876,11 @@
       <c r="E6" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -863,8 +896,11 @@
       <c r="E7" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -880,8 +916,11 @@
       <c r="E8" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -897,8 +936,11 @@
       <c r="E9" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -914,8 +956,11 @@
       <c r="E10" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -931,8 +976,11 @@
       <c r="E11" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -948,8 +996,11 @@
       <c r="E12" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F12" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>71</v>
       </c>
@@ -965,8 +1016,11 @@
       <c r="E13" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F13" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>71</v>
       </c>
@@ -982,8 +1036,11 @@
       <c r="E14" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F14" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>71</v>
       </c>
@@ -999,8 +1056,11 @@
       <c r="E15" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F15" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>71</v>
       </c>
@@ -1016,8 +1076,11 @@
       <c r="E16" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F16" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -1033,8 +1096,11 @@
       <c r="E17" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F17" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1050,8 +1116,11 @@
       <c r="E18" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -1067,8 +1136,11 @@
       <c r="E19" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F19" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -1084,8 +1156,11 @@
       <c r="E20" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F20" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -1101,8 +1176,11 @@
       <c r="E21" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F21" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
@@ -1118,8 +1196,11 @@
       <c r="E22" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F22" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
@@ -1135,8 +1216,11 @@
       <c r="E23" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F23" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>71</v>
       </c>
@@ -1152,8 +1236,11 @@
       <c r="E24" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F24" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>71</v>
       </c>
@@ -1169,8 +1256,11 @@
       <c r="E25" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F25" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
@@ -1186,8 +1276,11 @@
       <c r="E26" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F26" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
@@ -1203,8 +1296,11 @@
       <c r="E27" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F27" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -1220,8 +1316,11 @@
       <c r="E28" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F28" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>71</v>
       </c>
@@ -1237,8 +1336,11 @@
       <c r="E29" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F29" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>13</v>
       </c>
@@ -1254,8 +1356,11 @@
       <c r="E30" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F30" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
@@ -1271,8 +1376,11 @@
       <c r="E31" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F31" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>13</v>
       </c>
@@ -1288,8 +1396,11 @@
       <c r="E32" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F32" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
@@ -1305,8 +1416,11 @@
       <c r="E33" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F33" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
@@ -1322,8 +1436,11 @@
       <c r="E34" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F34" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>1</v>
       </c>
@@ -1339,8 +1456,11 @@
       <c r="E35" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F35" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>71</v>
       </c>
@@ -1356,8 +1476,11 @@
       <c r="E36" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F36" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>71</v>
       </c>
@@ -1373,8 +1496,11 @@
       <c r="E37" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F37" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>13</v>
       </c>
@@ -1390,8 +1516,11 @@
       <c r="E38" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F38" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>1</v>
       </c>
@@ -1407,8 +1536,11 @@
       <c r="E39" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F39" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>1</v>
       </c>
@@ -1424,8 +1556,11 @@
       <c r="E40" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F40" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>1</v>
       </c>
@@ -1441,8 +1576,11 @@
       <c r="E41" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F41" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>1</v>
       </c>
@@ -1458,8 +1596,11 @@
       <c r="E42" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F42" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>1</v>
       </c>
@@ -1475,8 +1616,11 @@
       <c r="E43" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F43" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>13</v>
       </c>
@@ -1492,8 +1636,11 @@
       <c r="E44" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F44" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>1</v>
       </c>
@@ -1509,8 +1656,11 @@
       <c r="E45" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F45" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>1</v>
       </c>
@@ -1526,8 +1676,11 @@
       <c r="E46" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F46" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>1</v>
       </c>
@@ -1543,8 +1696,11 @@
       <c r="E47" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F47" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>1</v>
       </c>
@@ -1560,8 +1716,11 @@
       <c r="E48" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F48" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>1</v>
       </c>
@@ -1577,8 +1736,11 @@
       <c r="E49" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F49" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>1</v>
       </c>
@@ -1594,8 +1756,11 @@
       <c r="E50" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F50" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>71</v>
       </c>
@@ -1611,8 +1776,11 @@
       <c r="E51" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F51" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>71</v>
       </c>
@@ -1628,8 +1796,11 @@
       <c r="E52" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F52" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>1</v>
       </c>
@@ -1645,8 +1816,11 @@
       <c r="E53" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F53" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>1</v>
       </c>
@@ -1662,8 +1836,11 @@
       <c r="E54" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F54" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>1</v>
       </c>
@@ -1679,8 +1856,11 @@
       <c r="E55" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F55" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>13</v>
       </c>
@@ -1696,8 +1876,11 @@
       <c r="E56" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F56" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>13</v>
       </c>
@@ -1713,8 +1896,11 @@
       <c r="E57" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F57" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>13</v>
       </c>
@@ -1730,8 +1916,11 @@
       <c r="E58" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F58" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>1</v>
       </c>
@@ -1747,8 +1936,11 @@
       <c r="E59" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F59" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>1</v>
       </c>
@@ -1764,8 +1956,11 @@
       <c r="E60" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F60" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>1</v>
       </c>
@@ -1781,8 +1976,11 @@
       <c r="E61" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F61" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
@@ -1798,8 +1996,11 @@
       <c r="E62" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F62" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>1</v>
       </c>
@@ -1815,8 +2016,11 @@
       <c r="E63" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F63" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>1</v>
       </c>
@@ -1832,8 +2036,11 @@
       <c r="E64" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F64" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>71</v>
       </c>
@@ -1849,8 +2056,11 @@
       <c r="E65" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F65" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>71</v>
       </c>
@@ -1866,8 +2076,11 @@
       <c r="E66" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F66" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>13</v>
       </c>
@@ -1883,8 +2096,11 @@
       <c r="E67" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F67" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>71</v>
       </c>
@@ -1900,8 +2116,11 @@
       <c r="E68" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F68" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>1</v>
       </c>
@@ -1917,8 +2136,11 @@
       <c r="E69" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F69" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>71</v>
       </c>
@@ -1934,8 +2156,11 @@
       <c r="E70" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F70" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>13</v>
       </c>
@@ -1951,8 +2176,11 @@
       <c r="E71" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F71" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>1</v>
       </c>
@@ -1968,8 +2196,11 @@
       <c r="E72" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F72" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>13</v>
       </c>
@@ -1985,8 +2216,11 @@
       <c r="E73" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F73" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>1</v>
       </c>
@@ -2002,8 +2236,11 @@
       <c r="E74" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F74" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>13</v>
       </c>
@@ -2019,8 +2256,11 @@
       <c r="E75" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F75" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>1</v>
       </c>
@@ -2036,8 +2276,11 @@
       <c r="E76" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F76" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>1</v>
       </c>
@@ -2053,8 +2296,11 @@
       <c r="E77" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F77" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>1</v>
       </c>
@@ -2070,8 +2316,11 @@
       <c r="E78" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F78" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>1</v>
       </c>
@@ -2087,8 +2336,11 @@
       <c r="E79" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F79" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>1</v>
       </c>
@@ -2104,8 +2356,11 @@
       <c r="E80" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F80" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>1</v>
       </c>
@@ -2121,8 +2376,11 @@
       <c r="E81" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F81" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>1</v>
       </c>
@@ -2138,8 +2396,11 @@
       <c r="E82" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F82" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>1</v>
       </c>
@@ -2155,8 +2416,11 @@
       <c r="E83" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F83" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>1</v>
       </c>
@@ -2172,8 +2436,11 @@
       <c r="E84" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F84" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>1</v>
       </c>
@@ -2189,8 +2456,11 @@
       <c r="E85" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F85" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>1</v>
       </c>
@@ -2206,8 +2476,11 @@
       <c r="E86" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F86" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>1</v>
       </c>
@@ -2223,8 +2496,11 @@
       <c r="E87" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F87" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>1</v>
       </c>
@@ -2240,8 +2516,11 @@
       <c r="E88" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F88" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>1</v>
       </c>
@@ -2257,8 +2536,11 @@
       <c r="E89" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F89" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>1</v>
       </c>
@@ -2274,8 +2556,11 @@
       <c r="E90" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F90" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>1</v>
       </c>
@@ -2291,8 +2576,11 @@
       <c r="E91" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F91" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>1</v>
       </c>
@@ -2308,8 +2596,11 @@
       <c r="E92" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F92" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>1</v>
       </c>
@@ -2325,8 +2616,11 @@
       <c r="E93" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F93" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>71</v>
       </c>
@@ -2342,8 +2636,11 @@
       <c r="E94" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F94" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>1</v>
       </c>
@@ -2359,8 +2656,11 @@
       <c r="E95" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F95" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>1</v>
       </c>
@@ -2376,8 +2676,11 @@
       <c r="E96" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F96" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>1</v>
       </c>
@@ -2393,8 +2696,11 @@
       <c r="E97" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F97" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>1</v>
       </c>
@@ -2410,8 +2716,11 @@
       <c r="E98" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F98" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>1</v>
       </c>
@@ -2427,8 +2736,11 @@
       <c r="E99" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F99" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>1</v>
       </c>
@@ -2444,8 +2756,11 @@
       <c r="E100" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F100" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>1</v>
       </c>
@@ -2461,8 +2776,11 @@
       <c r="E101" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F101" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>1</v>
       </c>
@@ -2478,8 +2796,11 @@
       <c r="E102" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F102" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>1</v>
       </c>
@@ -2495,8 +2816,11 @@
       <c r="E103" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F103" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>1</v>
       </c>
@@ -2512,8 +2836,11 @@
       <c r="E104" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F104" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>1</v>
       </c>
@@ -2529,8 +2856,11 @@
       <c r="E105" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F105" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>1</v>
       </c>
@@ -2546,8 +2876,11 @@
       <c r="E106" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F106" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>1</v>
       </c>
@@ -2563,8 +2896,11 @@
       <c r="E107" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F107" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>1</v>
       </c>
@@ -2580,8 +2916,11 @@
       <c r="E108" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F108" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>1</v>
       </c>
@@ -2597,8 +2936,11 @@
       <c r="E109" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F109" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>1</v>
       </c>
@@ -2614,8 +2956,11 @@
       <c r="E110" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F110" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>1</v>
       </c>
@@ -2631,8 +2976,11 @@
       <c r="E111" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F111" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>1</v>
       </c>
@@ -2648,8 +2996,11 @@
       <c r="E112" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F112" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>1</v>
       </c>
@@ -2665,8 +3016,11 @@
       <c r="E113" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F113" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>1</v>
       </c>
@@ -2682,8 +3036,11 @@
       <c r="E114" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F114" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>1</v>
       </c>
@@ -2699,8 +3056,11 @@
       <c r="E115" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F115" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>1</v>
       </c>
@@ -2716,8 +3076,11 @@
       <c r="E116" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F116" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>1</v>
       </c>
@@ -2733,8 +3096,11 @@
       <c r="E117" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F117" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>1</v>
       </c>
@@ -2750,8 +3116,11 @@
       <c r="E118" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F118" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>1</v>
       </c>
@@ -2767,8 +3136,11 @@
       <c r="E119" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F119" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>71</v>
       </c>
@@ -2784,8 +3156,11 @@
       <c r="E120" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F120" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>71</v>
       </c>
@@ -2801,8 +3176,11 @@
       <c r="E121" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F121" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>71</v>
       </c>
@@ -2818,8 +3196,11 @@
       <c r="E122" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F122" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>71</v>
       </c>
@@ -2835,8 +3216,11 @@
       <c r="E123" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F123" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>71</v>
       </c>
@@ -2852,8 +3236,11 @@
       <c r="E124" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F124" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>71</v>
       </c>
@@ -2869,8 +3256,11 @@
       <c r="E125" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F125" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>71</v>
       </c>
@@ -2886,8 +3276,11 @@
       <c r="E126" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F126" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="7" t="s">
         <v>71</v>
       </c>
@@ -2903,8 +3296,11 @@
       <c r="E127" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F127" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="7" t="s">
         <v>71</v>
       </c>
@@ -2920,8 +3316,11 @@
       <c r="E128" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F128" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="7" t="s">
         <v>71</v>
       </c>
@@ -2937,8 +3336,11 @@
       <c r="E129" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F129" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="7" t="s">
         <v>71</v>
       </c>
@@ -2954,8 +3356,11 @@
       <c r="E130" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F130" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="7" t="s">
         <v>71</v>
       </c>
@@ -2971,8 +3376,11 @@
       <c r="E131" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F131" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="7" t="s">
         <v>71</v>
       </c>
@@ -2988,8 +3396,11 @@
       <c r="E132" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F132" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="7" t="s">
         <v>71</v>
       </c>
@@ -3005,8 +3416,11 @@
       <c r="E133" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F133" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="7" t="s">
         <v>71</v>
       </c>
@@ -3022,8 +3436,11 @@
       <c r="E134" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F134" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="7" t="s">
         <v>71</v>
       </c>
@@ -3039,8 +3456,11 @@
       <c r="E135" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F135" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="7" t="s">
         <v>71</v>
       </c>
@@ -3056,8 +3476,11 @@
       <c r="E136" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F136" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="7" t="s">
         <v>71</v>
       </c>
@@ -3073,8 +3496,11 @@
       <c r="E137" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F137" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="7" t="s">
         <v>71</v>
       </c>
@@ -3090,8 +3516,11 @@
       <c r="E138" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F138" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="7" t="s">
         <v>71</v>
       </c>
@@ -3107,8 +3536,11 @@
       <c r="E139" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F139" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="7" t="s">
         <v>71</v>
       </c>
@@ -3124,8 +3556,11 @@
       <c r="E140" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F140" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="7" t="s">
         <v>71</v>
       </c>
@@ -3141,8 +3576,11 @@
       <c r="E141" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F141" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="7" t="s">
         <v>71</v>
       </c>
@@ -3158,8 +3596,11 @@
       <c r="E142" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F142" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="7" t="s">
         <v>71</v>
       </c>
@@ -3175,8 +3616,11 @@
       <c r="E143" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F143" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="7" t="s">
         <v>71</v>
       </c>
@@ -3192,8 +3636,11 @@
       <c r="E144" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F144" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="7" t="s">
         <v>71</v>
       </c>
@@ -3209,8 +3656,11 @@
       <c r="E145" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F145" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="7" t="s">
         <v>71</v>
       </c>
@@ -3226,8 +3676,11 @@
       <c r="E146" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F146" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="7" t="s">
         <v>71</v>
       </c>
@@ -3243,8 +3696,11 @@
       <c r="E147" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F147" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="7" t="s">
         <v>71</v>
       </c>
@@ -3260,8 +3716,11 @@
       <c r="E148" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F148" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="7" t="s">
         <v>71</v>
       </c>
@@ -3277,8 +3736,11 @@
       <c r="E149" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F149" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="7" t="s">
         <v>71</v>
       </c>
@@ -3294,8 +3756,11 @@
       <c r="E150" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F150" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>13</v>
       </c>
@@ -3311,8 +3776,11 @@
       <c r="E151" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F151" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>13</v>
       </c>
@@ -3328,8 +3796,11 @@
       <c r="E152" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F152" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>1</v>
       </c>
@@ -3345,8 +3816,11 @@
       <c r="E153" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F153" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>71</v>
       </c>
@@ -3362,8 +3836,11 @@
       <c r="E154" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F154" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>71</v>
       </c>
@@ -3379,8 +3856,11 @@
       <c r="E155" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F155" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>1</v>
       </c>
@@ -3396,8 +3876,11 @@
       <c r="E156" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F156" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>1</v>
       </c>
@@ -3413,8 +3896,11 @@
       <c r="E157" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F157" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3916,11 @@
       <c r="E158" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F158" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="7" t="s">
         <v>71</v>
       </c>
@@ -3447,8 +3936,11 @@
       <c r="E159" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F159" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>1</v>
       </c>
@@ -3464,8 +3956,11 @@
       <c r="E160" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F160" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>1</v>
       </c>
@@ -3481,8 +3976,11 @@
       <c r="E161" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F161" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>1</v>
       </c>
@@ -3498,8 +3996,11 @@
       <c r="E162" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F162" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>1</v>
       </c>
@@ -3515,8 +4016,11 @@
       <c r="E163" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F163" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>1</v>
       </c>
@@ -3532,8 +4036,11 @@
       <c r="E164" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F164" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>1</v>
       </c>
@@ -3549,8 +4056,11 @@
       <c r="E165" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F165" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>1</v>
       </c>
@@ -3566,8 +4076,11 @@
       <c r="E166" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F166" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>1</v>
       </c>
@@ -3583,8 +4096,11 @@
       <c r="E167" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F167" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>1</v>
       </c>
@@ -3600,8 +4116,11 @@
       <c r="E168" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F168" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>1</v>
       </c>
@@ -3617,8 +4136,11 @@
       <c r="E169" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F169" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>1</v>
       </c>
@@ -3634,8 +4156,11 @@
       <c r="E170" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F170" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>71</v>
       </c>
@@ -3651,8 +4176,11 @@
       <c r="E171" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F171" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>71</v>
       </c>
@@ -3668,8 +4196,11 @@
       <c r="E172" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F172" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>71</v>
       </c>
@@ -3685,8 +4216,11 @@
       <c r="E173" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F173" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>71</v>
       </c>
@@ -3702,8 +4236,11 @@
       <c r="E174" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F174" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="7" t="s">
         <v>71</v>
       </c>
@@ -3719,8 +4256,11 @@
       <c r="E175" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F175" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>71</v>
       </c>
@@ -3736,8 +4276,11 @@
       <c r="E176" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F176" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>1</v>
       </c>
@@ -3753,8 +4296,11 @@
       <c r="E177" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F177" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>1</v>
       </c>
@@ -3770,8 +4316,11 @@
       <c r="E178" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F178" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>1</v>
       </c>
@@ -3787,8 +4336,11 @@
       <c r="E179" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F179" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>1</v>
       </c>
@@ -3804,8 +4356,11 @@
       <c r="E180" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F180" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
         <v>1</v>
       </c>
@@ -3821,8 +4376,11 @@
       <c r="E181" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F181" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>1</v>
       </c>
@@ -3838,8 +4396,11 @@
       <c r="E182" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F182" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
         <v>1</v>
       </c>
@@ -3855,8 +4416,11 @@
       <c r="E183" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F183" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
         <v>1</v>
       </c>
@@ -3872,8 +4436,11 @@
       <c r="E184" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F184" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
         <v>1</v>
       </c>
@@ -3889,8 +4456,11 @@
       <c r="E185" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F185" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
         <v>1</v>
       </c>
@@ -3906,8 +4476,11 @@
       <c r="E186" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F186" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
         <v>1</v>
       </c>
@@ -3923,8 +4496,11 @@
       <c r="E187" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F187" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
         <v>1</v>
       </c>
@@ -3940,8 +4516,11 @@
       <c r="E188" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F188" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
         <v>1</v>
       </c>
@@ -3957,8 +4536,11 @@
       <c r="E189" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F189" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
         <v>1</v>
       </c>
@@ -3974,8 +4556,11 @@
       <c r="E190" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F190" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
         <v>1</v>
       </c>
@@ -3991,8 +4576,11 @@
       <c r="E191" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F191" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
         <v>1</v>
       </c>
@@ -4008,8 +4596,11 @@
       <c r="E192" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F192" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
         <v>1</v>
       </c>
@@ -4025,8 +4616,11 @@
       <c r="E193" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F193" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
         <v>1</v>
       </c>
@@ -4042,8 +4636,11 @@
       <c r="E194" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F194" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>1</v>
       </c>
@@ -4059,8 +4656,11 @@
       <c r="E195" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F195" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
         <v>1</v>
       </c>
@@ -4076,8 +4676,11 @@
       <c r="E196" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F196" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
         <v>1</v>
       </c>
@@ -4093,8 +4696,11 @@
       <c r="E197" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F197" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
         <v>1</v>
       </c>
@@ -4110,8 +4716,11 @@
       <c r="E198" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F198" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
         <v>1</v>
       </c>
@@ -4127,8 +4736,11 @@
       <c r="E199" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F199" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
         <v>1</v>
       </c>
@@ -4144,8 +4756,11 @@
       <c r="E200" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F200" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
         <v>1</v>
       </c>
@@ -4161,8 +4776,11 @@
       <c r="E201" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F201" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
         <v>1</v>
       </c>
@@ -4178,8 +4796,11 @@
       <c r="E202" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F202" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
         <v>1</v>
       </c>
@@ -4195,8 +4816,11 @@
       <c r="E203" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F203" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
         <v>1</v>
       </c>
@@ -4212,8 +4836,11 @@
       <c r="E204" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F204" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
         <v>1</v>
       </c>
@@ -4229,8 +4856,11 @@
       <c r="E205" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F205" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
         <v>1</v>
       </c>
@@ -4246,8 +4876,11 @@
       <c r="E206" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F206" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
         <v>1</v>
       </c>
@@ -4263,8 +4896,11 @@
       <c r="E207" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F207" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
         <v>1</v>
       </c>
@@ -4280,8 +4916,11 @@
       <c r="E208" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F208" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
         <v>1</v>
       </c>
@@ -4297,8 +4936,11 @@
       <c r="E209" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F209" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
         <v>1</v>
       </c>
@@ -4314,8 +4956,11 @@
       <c r="E210" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F210" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
         <v>1</v>
       </c>
@@ -4331,8 +4976,11 @@
       <c r="E211" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F211" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
         <v>1</v>
       </c>
@@ -4348,8 +4996,11 @@
       <c r="E212" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F212" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
         <v>1</v>
       </c>
@@ -4365,8 +5016,11 @@
       <c r="E213" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F213" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
         <v>1</v>
       </c>
@@ -4382,8 +5036,11 @@
       <c r="E214" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F214" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
         <v>1</v>
       </c>
@@ -4399,8 +5056,11 @@
       <c r="E215" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F215" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
         <v>1</v>
       </c>
@@ -4416,8 +5076,11 @@
       <c r="E216" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F216" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
         <v>1</v>
       </c>
@@ -4433,8 +5096,11 @@
       <c r="E217" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F217" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
         <v>1</v>
       </c>
@@ -4450,8 +5116,11 @@
       <c r="E218" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F218" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
         <v>1</v>
       </c>
@@ -4467,8 +5136,11 @@
       <c r="E219" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F219" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
         <v>13</v>
       </c>
@@ -4484,8 +5156,11 @@
       <c r="E220" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F220" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
         <v>13</v>
       </c>
@@ -4501,8 +5176,11 @@
       <c r="E221" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F221" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
         <v>1</v>
       </c>
@@ -4518,8 +5196,11 @@
       <c r="E222" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F222" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
         <v>1</v>
       </c>
@@ -4535,8 +5216,11 @@
       <c r="E223" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F223" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
         <v>1</v>
       </c>
@@ -4552,8 +5236,11 @@
       <c r="E224" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F224" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
         <v>13</v>
       </c>
@@ -4569,8 +5256,11 @@
       <c r="E225" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F225" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
         <v>1</v>
       </c>
@@ -4586,8 +5276,11 @@
       <c r="E226" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F226" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
         <v>1</v>
       </c>
@@ -4603,8 +5296,11 @@
       <c r="E227" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F227" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
         <v>1</v>
       </c>
@@ -4620,8 +5316,11 @@
       <c r="E228" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F228" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
         <v>1</v>
       </c>
@@ -4637,8 +5336,11 @@
       <c r="E229" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F229" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
         <v>1</v>
       </c>
@@ -4654,8 +5356,11 @@
       <c r="E230" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F230" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
         <v>1</v>
       </c>
@@ -4671,8 +5376,11 @@
       <c r="E231" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F231" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
         <v>1</v>
       </c>
@@ -4688,8 +5396,11 @@
       <c r="E232" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F232" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
         <v>1</v>
       </c>
@@ -4705,8 +5416,11 @@
       <c r="E233" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F233" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
         <v>1</v>
       </c>
@@ -4722,8 +5436,11 @@
       <c r="E234" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F234" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
         <v>1</v>
       </c>
@@ -4739,8 +5456,11 @@
       <c r="E235" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F235" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
         <v>1</v>
       </c>
@@ -4756,8 +5476,11 @@
       <c r="E236" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F236" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
         <v>1</v>
       </c>
@@ -4773,8 +5496,11 @@
       <c r="E237" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F237" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
         <v>1</v>
       </c>
@@ -4790,8 +5516,11 @@
       <c r="E238" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F238" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
         <v>1</v>
       </c>
@@ -4807,8 +5536,11 @@
       <c r="E239" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F239" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" s="7" t="s">
         <v>71</v>
       </c>
@@ -4824,8 +5556,11 @@
       <c r="E240" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F240" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
         <v>1</v>
       </c>
@@ -4841,8 +5576,11 @@
       <c r="E241" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F241" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
         <v>1</v>
       </c>
@@ -4858,8 +5596,11 @@
       <c r="E242" s="10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F242" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
         <v>1</v>
       </c>
@@ -4875,8 +5616,11 @@
       <c r="E243" s="10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F243" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
         <v>1</v>
       </c>
@@ -4892,13 +5636,11 @@
       <c r="E244" s="10" t="s">
         <v>63</v>
       </c>
+      <c r="F244" s="10" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{7F217761-C46D-4553-9B08-6E524775D494}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E250">
-      <sortCondition ref="D1"/>
-    </sortState>
-  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E251">
     <sortCondition ref="D2:D251"/>
     <sortCondition ref="B2:B251"/>
